--- a/data/trans_orig/P36B01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35147</v>
+        <v>35771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61560</v>
+        <v>62069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1092508390253309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08191069606167969</v>
+        <v>0.08336470691548906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.143465719034701</v>
+        <v>0.1446520248082283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -762,19 +762,19 @@
         <v>32182</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22837</v>
+        <v>22306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43912</v>
+        <v>45611</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09353305907117851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06637429662322339</v>
+        <v>0.06483013666583529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1276269011518838</v>
+        <v>0.1325646197039164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -783,19 +783,19 @@
         <v>79060</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63048</v>
+        <v>62347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97342</v>
+        <v>98401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1022561800012995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08154562275866392</v>
+        <v>0.08063917498175195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1259014541610599</v>
+        <v>0.1272706395933045</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1882</v>
+        <v>1152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11432</v>
+        <v>10672</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01161828883358961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004386998884064845</v>
+        <v>0.002685489049338065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02664149446565413</v>
+        <v>0.02487174720608664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4780</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1829</v>
+        <v>1799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10484</v>
+        <v>10562</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01389183365590504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00531492877798869</v>
+        <v>0.005229797848634059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03047162489246338</v>
+        <v>0.03069876960738114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>9765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4988</v>
+        <v>4915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18549</v>
+        <v>17475</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01263005199952879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006451040432860417</v>
+        <v>0.006357594801855518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02399159288515871</v>
+        <v>0.0226020221906742</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8897</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4188</v>
+        <v>4061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16638</v>
+        <v>16908</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02073412961324335</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009760991290075743</v>
+        <v>0.009463194184896823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03877475629661635</v>
+        <v>0.03940366452151797</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -904,19 +904,19 @@
         <v>8686</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4177</v>
+        <v>3880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16132</v>
+        <v>15932</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02524588258857038</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0121386410529592</v>
+        <v>0.01127590084833459</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0468873699486236</v>
+        <v>0.04630449582023161</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -925,19 +925,19 @@
         <v>17583</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10607</v>
+        <v>10754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28030</v>
+        <v>28938</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0227419305721017</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01371849066397173</v>
+        <v>0.01390907731907111</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03625355301561694</v>
+        <v>0.03742806663194181</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>8365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3864</v>
+        <v>3605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16393</v>
+        <v>16196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01949571267827111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009005477081452178</v>
+        <v>0.008401288028395884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03820366364371303</v>
+        <v>0.03774468379871723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -975,19 +975,19 @@
         <v>9937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4927</v>
+        <v>4908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18228</v>
+        <v>18687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02887997874768832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01432018388422947</v>
+        <v>0.01426492227809049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05297702110214019</v>
+        <v>0.054313223867673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -996,19 +996,19 @@
         <v>18302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11309</v>
+        <v>10660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28983</v>
+        <v>28868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02367185851679457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01462750179135732</v>
+        <v>0.01378702903936459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03748578574530265</v>
+        <v>0.03733779993389771</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>359966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342103</v>
+        <v>343214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374174</v>
+        <v>373595</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.838901029849565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7972726954157088</v>
+        <v>0.7998621877780979</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8720129761196337</v>
+        <v>0.8706637848286634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -1046,19 +1046,19 @@
         <v>288484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>273843</v>
+        <v>272970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>301197</v>
+        <v>301045</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8384492459366577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7958947043677749</v>
+        <v>0.7933591626686222</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.875397517715423</v>
+        <v>0.8749560149041967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>607</v>
@@ -1067,19 +1067,19 @@
         <v>648450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>627174</v>
+        <v>627364</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>667598</v>
+        <v>669220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8386999789102755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8111821265530427</v>
+        <v>0.8114275782753686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8634662208528537</v>
+        <v>0.8655637580533273</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>38553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28011</v>
+        <v>27080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52126</v>
+        <v>52238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1026733084099237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07459876514426833</v>
+        <v>0.07211871476170567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1388215586313787</v>
+        <v>0.1391202985231704</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1192,19 +1192,19 @@
         <v>32817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23425</v>
+        <v>23026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44649</v>
+        <v>44551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08865096455075443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06327862462014117</v>
+        <v>0.06220046167206496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1206113602352429</v>
+        <v>0.1203470064210198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1213,19 +1213,19 @@
         <v>71370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55268</v>
+        <v>57590</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88942</v>
+        <v>89049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09571203217792676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07411760616840926</v>
+        <v>0.07723208228594616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1192774344220902</v>
+        <v>0.1194202934586636</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>2979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7957</v>
+        <v>8387</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007932513164300435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002566346815616273</v>
+        <v>0.002543284474919937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02119200954984825</v>
+        <v>0.02233648805607197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1263,19 +1263,19 @@
         <v>3902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9901</v>
+        <v>10086</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01054200094160504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002601950783834698</v>
+        <v>0.002607408486775923</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02674541896353679</v>
+        <v>0.02724452707223398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1284,19 +1284,19 @@
         <v>6881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2982</v>
+        <v>2945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15701</v>
+        <v>14017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009227971714188918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00399867266978828</v>
+        <v>0.003949997657817913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02105648434922426</v>
+        <v>0.01879759879158128</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6599</v>
+        <v>6828</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005236357451926338</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0175731497191974</v>
+        <v>0.01818362942226279</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1334,19 +1334,19 @@
         <v>5950</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2128</v>
+        <v>2825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12266</v>
+        <v>12061</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0160718518038146</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005747980507502734</v>
+        <v>0.007631032240301896</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03313404774021258</v>
+        <v>0.03258193994082098</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1355,19 +1355,19 @@
         <v>7916</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3821</v>
+        <v>3855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14973</v>
+        <v>14998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01061554869493765</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00512406870737615</v>
+        <v>0.005169448422536051</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02007935882182816</v>
+        <v>0.02011303218039106</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>8236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4050</v>
+        <v>4055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15927</v>
+        <v>16609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02193356314691861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01078618824059797</v>
+        <v>0.01079910836702496</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04241665345005648</v>
+        <v>0.04423315246576968</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1405,19 +1405,19 @@
         <v>4666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1361</v>
+        <v>1133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12277</v>
+        <v>11227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01260424346641593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003675442742599415</v>
+        <v>0.00305962328172744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03316323354626922</v>
+        <v>0.03032908345423427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1426,19 +1426,19 @@
         <v>12902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6738</v>
+        <v>7361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21847</v>
+        <v>22806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01730209981918703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009036587881324441</v>
+        <v>0.009870967349465187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02929784061541582</v>
+        <v>0.0305846010391122</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>323757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>306976</v>
+        <v>308584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335760</v>
+        <v>336762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8622242578269309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8175309559426583</v>
+        <v>0.8218136247937731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8941900515034702</v>
+        <v>0.8968564938652897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>303</v>
@@ -1476,19 +1476,19 @@
         <v>322850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309531</v>
+        <v>308737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334834</v>
+        <v>335856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.87213093923741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.836153333678226</v>
+        <v>0.8340075383565023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9045050056585391</v>
+        <v>0.907265550059538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>607</v>
@@ -1497,19 +1497,19 @@
         <v>646607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>627335</v>
+        <v>626936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>664768</v>
+        <v>663462</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8671423475937596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8412967505044525</v>
+        <v>0.8407624468155973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8914972150572281</v>
+        <v>0.8897461266598276</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>65603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51350</v>
+        <v>51921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80735</v>
+        <v>83033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1256965376503634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0983873353398725</v>
+        <v>0.09948228545568776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1546902508783359</v>
+        <v>0.15909282987462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1622,19 +1622,19 @@
         <v>14211</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7933</v>
+        <v>8337</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22513</v>
+        <v>22566</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08605138990122593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04803934999333477</v>
+        <v>0.05048259201132008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1363235224937664</v>
+        <v>0.1366453365279879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1643,19 +1643,19 @@
         <v>79813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64649</v>
+        <v>63175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98535</v>
+        <v>97845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1161673647697033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09409639518623537</v>
+        <v>0.09195061301416772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1434159448936399</v>
+        <v>0.142412129583944</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3952</v>
+        <v>4693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15235</v>
+        <v>16007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01686258403622785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007571760683524941</v>
+        <v>0.008991899103570893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02919032217542654</v>
+        <v>0.03066947916275578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5135</v>
+        <v>5132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006164664098830152</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03109716477367988</v>
+        <v>0.03107722374515927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1714,19 +1714,19 @@
         <v>9819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4836</v>
+        <v>4864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17679</v>
+        <v>18109</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01429121441510842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00703859749923808</v>
+        <v>0.007079910633879176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02573088125204962</v>
+        <v>0.02635719092528156</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>12567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6638</v>
+        <v>6300</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21274</v>
+        <v>22612</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0240782538957393</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01271886701597045</v>
+        <v>0.01207102013414537</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04076056871042966</v>
+        <v>0.04332545757864107</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5872</v>
+        <v>5612</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006175373781632443</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03556004333692794</v>
+        <v>0.0339837936737312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1785,19 +1785,19 @@
         <v>13587</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6983</v>
+        <v>6876</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24727</v>
+        <v>23300</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01977508820321724</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01016332128353703</v>
+        <v>0.01000854418664033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0359898771854775</v>
+        <v>0.03391220525981591</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>6002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2044</v>
+        <v>2116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12658</v>
+        <v>12803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01149912382423733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003916662015164563</v>
+        <v>0.004053386531024527</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0242527652206395</v>
+        <v>0.02453037419423816</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8287</v>
+        <v>8267</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01460098730177078</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05017853028910622</v>
+        <v>0.05006207431001834</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1856,19 +1856,19 @@
         <v>8413</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3848</v>
+        <v>3624</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15966</v>
+        <v>15321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01224469282846093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005600417256475299</v>
+        <v>0.005275391680472812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02323822899638886</v>
+        <v>0.02229899374784685</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>428942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>411492</v>
+        <v>410095</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>447162</v>
+        <v>445987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8218635005934322</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7884284031234443</v>
+        <v>0.7857520288872069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8567729198122124</v>
+        <v>0.8545216633581829</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -1906,19 +1906,19 @@
         <v>146482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136818</v>
+        <v>136984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154018</v>
+        <v>153272</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8870075849165407</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8284881576146056</v>
+        <v>0.8294907753324497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9326420074577201</v>
+        <v>0.9281213138853758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>546</v>
@@ -1927,19 +1927,19 @@
         <v>575423</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>555906</v>
+        <v>555155</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>594015</v>
+        <v>593903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8375216397835101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8091146816304117</v>
+        <v>0.8080207878017521</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8645809954867161</v>
+        <v>0.8644182312031073</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>140979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119626</v>
+        <v>119619</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164426</v>
+        <v>165490</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.122831450250413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1042273428390456</v>
+        <v>0.104221427680517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1432604487853879</v>
+        <v>0.1441878823852533</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -2052,19 +2052,19 @@
         <v>100888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82534</v>
+        <v>84344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>120115</v>
+        <v>122308</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1222995374003866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1000501050250675</v>
+        <v>0.1022451985995518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1456082229222982</v>
+        <v>0.1482659138517765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -2073,19 +2073,19 @@
         <v>241866</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>213327</v>
+        <v>211597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273829</v>
+        <v>271561</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1226090166005988</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1081415006548346</v>
+        <v>0.1072644601020192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1388117727543071</v>
+        <v>0.1376619539924195</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>17432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11059</v>
+        <v>10375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28950</v>
+        <v>26952</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01518825665019561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009635155832741684</v>
+        <v>0.009039399776059645</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02522343781343689</v>
+        <v>0.02348291696537337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2123,19 +2123,19 @@
         <v>15486</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8894</v>
+        <v>8954</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24524</v>
+        <v>25285</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0187729933967259</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0107812340175238</v>
+        <v>0.01085426277056531</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02972870238308823</v>
+        <v>0.03065162856988011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -2144,19 +2144,19 @@
         <v>32918</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22992</v>
+        <v>22829</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44615</v>
+        <v>45525</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01668731063641604</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01165526346722057</v>
+        <v>0.01157260581989636</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02261639791191259</v>
+        <v>0.02307800700810094</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>12196</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6294</v>
+        <v>6992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20426</v>
+        <v>20365</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01062609924988388</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0054839897878491</v>
+        <v>0.006092285511401983</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01779700064999121</v>
+        <v>0.01774327127626706</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2194,19 +2194,19 @@
         <v>12758</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6651</v>
+        <v>7126</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21565</v>
+        <v>21762</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01546543623018408</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008063070678022045</v>
+        <v>0.008638588964807757</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02614176223376014</v>
+        <v>0.02638088821009794</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2215,19 +2215,19 @@
         <v>24954</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16655</v>
+        <v>16707</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36586</v>
+        <v>37072</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01264979803278742</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008442857925713969</v>
+        <v>0.008469359991545591</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01854633214384512</v>
+        <v>0.0187926599359261</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>35382</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24430</v>
+        <v>24798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48774</v>
+        <v>48778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03082785115725805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02128503737608882</v>
+        <v>0.02160590355950914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0424955807128384</v>
+        <v>0.04249885451824276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2265,19 +2265,19 @@
         <v>10385</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5187</v>
+        <v>5139</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17953</v>
+        <v>18498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01258886875471252</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006288292586090439</v>
+        <v>0.006229963348501256</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02176385181682272</v>
+        <v>0.02242423218188504</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -2286,19 +2286,19 @@
         <v>45767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33305</v>
+        <v>33286</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60463</v>
+        <v>60363</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02320073061581131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01688342662958933</v>
+        <v>0.01687344622387925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03065060945062231</v>
+        <v>0.03059983579856152</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>941752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>917053</v>
+        <v>911134</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>968293</v>
+        <v>965174</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8205263426922494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7990071518582166</v>
+        <v>0.7938498563184881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8436507334630238</v>
+        <v>0.8409339511267855</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>659</v>
@@ -2336,19 +2336,19 @@
         <v>685406</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>664371</v>
+        <v>662646</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>705962</v>
+        <v>706466</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.830873164217991</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8053742821246102</v>
+        <v>0.8032833445048347</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.855792752356758</v>
+        <v>0.8564033168971805</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1562</v>
@@ -2357,19 +2357,19 @@
         <v>1627157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1591268</v>
+        <v>1594796</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1660150</v>
+        <v>1658913</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8248531441143865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8066598359407477</v>
+        <v>0.8084481459043044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8415779522998215</v>
+        <v>0.8409509599095039</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>103334</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>85909</v>
+        <v>86420</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>122784</v>
+        <v>123876</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1664786645454873</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1384060984025567</v>
+        <v>0.1392285861967054</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1978139333888737</v>
+        <v>0.1995728235650658</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>78</v>
@@ -2482,19 +2482,19 @@
         <v>81872</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64906</v>
+        <v>65419</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101352</v>
+        <v>99253</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1110401628953566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08803083718413503</v>
+        <v>0.08872581020105834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1374611033000706</v>
+        <v>0.1346137947214919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>179</v>
@@ -2503,19 +2503,19 @@
         <v>185206</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>160232</v>
+        <v>162835</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>210574</v>
+        <v>212494</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1363792474491873</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1179890916477625</v>
+        <v>0.1199063870979617</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1550593776442909</v>
+        <v>0.1564732712411996</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>14416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8072</v>
+        <v>8317</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23861</v>
+        <v>24987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02322460172316522</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0130049427672371</v>
+        <v>0.01339845353724203</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03844148190811836</v>
+        <v>0.0402565783275724</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2553,19 +2553,19 @@
         <v>10625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5662</v>
+        <v>5630</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19236</v>
+        <v>19186</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01441020419224657</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007679819267950251</v>
+        <v>0.007635243199377091</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02608960862913431</v>
+        <v>0.02602130000749341</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2574,19 +2574,19 @@
         <v>25041</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15534</v>
+        <v>16653</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36603</v>
+        <v>37224</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0184389704409552</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01143834127955815</v>
+        <v>0.01226250163220811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.026953384699356</v>
+        <v>0.02741034840614106</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>7415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3271</v>
+        <v>3045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14420</v>
+        <v>14050</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01194641503144724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005270602841264461</v>
+        <v>0.004905902578539244</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02323186420548556</v>
+        <v>0.02263580324694038</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2624,19 +2624,19 @@
         <v>5122</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1958</v>
+        <v>1985</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11226</v>
+        <v>12271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.006947234190864859</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002654955683582423</v>
+        <v>0.002692221454971298</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01522574921612149</v>
+        <v>0.01664228041870554</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2645,19 +2645,19 @@
         <v>12538</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7197</v>
+        <v>6951</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21686</v>
+        <v>21599</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00923219251854197</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00529952692189834</v>
+        <v>0.00511841868159737</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01596906716188157</v>
+        <v>0.01590497135511237</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>11835</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5858</v>
+        <v>6432</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19798</v>
+        <v>20658</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01906747952641343</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009437125272793796</v>
+        <v>0.0103623633391732</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03189581834889358</v>
+        <v>0.03328079234877946</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2695,19 +2695,19 @@
         <v>9399</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4790</v>
+        <v>4735</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17434</v>
+        <v>18419</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01274749910763758</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006496464444016345</v>
+        <v>0.006422592650472399</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02364504770831092</v>
+        <v>0.02498092423111234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2716,19 +2716,19 @@
         <v>21234</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13186</v>
+        <v>13123</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33068</v>
+        <v>32304</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01563615073860276</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00970969344605209</v>
+        <v>0.009663091957187979</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02435036081491808</v>
+        <v>0.02378760634809778</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>483706</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>462474</v>
+        <v>460479</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>503405</v>
+        <v>503378</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7792828391734868</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7450779086787098</v>
+        <v>0.7418636079105601</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8110207926727769</v>
+        <v>0.8109765444922781</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>596</v>
@@ -2766,19 +2766,19 @@
         <v>630297</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>607579</v>
+        <v>609854</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>648727</v>
+        <v>649242</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8548548996138944</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8240422309457601</v>
+        <v>0.8271278150440472</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8798499740446702</v>
+        <v>0.8805486297326189</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1060</v>
@@ -2787,19 +2787,19 @@
         <v>1114003</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1084574</v>
+        <v>1083661</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1141409</v>
+        <v>1140572</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8203134388527128</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.798643066042293</v>
+        <v>0.7979707393564518</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8404946935252467</v>
+        <v>0.8398781091895793</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>76929</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62818</v>
+        <v>61507</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>91491</v>
+        <v>92956</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2679082253975013</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2187692344081924</v>
+        <v>0.2142011111372755</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3186224919681655</v>
+        <v>0.3237250139505088</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>180</v>
@@ -2912,19 +2912,19 @@
         <v>190431</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>165916</v>
+        <v>166374</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>214876</v>
+        <v>216604</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1765489394042287</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1538210165958461</v>
+        <v>0.1542457443859268</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1992123461347513</v>
+        <v>0.2008138640931824</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>253</v>
@@ -2933,19 +2933,19 @@
         <v>267359</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>236988</v>
+        <v>238298</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>299505</v>
+        <v>299908</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1957566210798659</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1735193223585143</v>
+        <v>0.1744779784551438</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2192932450041745</v>
+        <v>0.2195882024409686</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>14684</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8365</v>
+        <v>8356</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>24018</v>
+        <v>23945</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05113910653813778</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02913264193318983</v>
+        <v>0.02910055209239604</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08364386513223193</v>
+        <v>0.0833916630342066</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -2983,19 +2983,19 @@
         <v>12449</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6767</v>
+        <v>6517</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20513</v>
+        <v>21139</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0115411991861943</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.006273284490411789</v>
+        <v>0.006041890505074786</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01901734132443017</v>
+        <v>0.01959816431846058</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>26</v>
@@ -3004,19 +3004,19 @@
         <v>27133</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17693</v>
+        <v>17864</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39203</v>
+        <v>39213</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01986639559254001</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01295427575902171</v>
+        <v>0.01307943841570064</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02870380191395428</v>
+        <v>0.02871107914948194</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>27856</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18389</v>
+        <v>18432</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39288</v>
+        <v>39839</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09701067568949939</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06404219147287286</v>
+        <v>0.06419081058011163</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1368240279479086</v>
+        <v>0.1387401699686014</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -3054,19 +3054,19 @@
         <v>20236</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12014</v>
+        <v>11802</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31300</v>
+        <v>30760</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01876096203756173</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01113848835740025</v>
+        <v>0.01094183042451334</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02901858087139954</v>
+        <v>0.0285174322566903</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>45</v>
@@ -3075,19 +3075,19 @@
         <v>48092</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>35259</v>
+        <v>35030</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>62279</v>
+        <v>64579</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03521244340254145</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02581587733462622</v>
+        <v>0.02564873137622115</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04559950118028726</v>
+        <v>0.04728361191503101</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>12848</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7052</v>
+        <v>7700</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22067</v>
+        <v>21871</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0447449359969098</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02455756640614846</v>
+        <v>0.02681595924789351</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07684936269259722</v>
+        <v>0.07616862559213401</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>33</v>
@@ -3125,19 +3125,19 @@
         <v>34379</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>23741</v>
+        <v>24092</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47373</v>
+        <v>47382</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03187301615794253</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02201003470386761</v>
+        <v>0.02233597554975666</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04391935389328769</v>
+        <v>0.04392815654387596</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>45</v>
@@ -3146,19 +3146,19 @@
         <v>47227</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>35180</v>
+        <v>35330</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>61900</v>
+        <v>62464</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03457925161209666</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02575855228401924</v>
+        <v>0.02586778975250232</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04532195734330358</v>
+        <v>0.04573511158949646</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>154828</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>138823</v>
+        <v>139293</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>171918</v>
+        <v>173539</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5391970563779517</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4834584257120728</v>
+        <v>0.485095328775627</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5987158373528005</v>
+        <v>0.6043588400827192</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>745</v>
@@ -3196,19 +3196,19 @@
         <v>821135</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>792195</v>
+        <v>790349</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>851010</v>
+        <v>846875</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7612758832140727</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7344458726342861</v>
+        <v>0.7327342920961218</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7889727155557733</v>
+        <v>0.7851393188308688</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>892</v>
@@ -3217,19 +3217,19 @@
         <v>975963</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>939820</v>
+        <v>937407</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1008340</v>
+        <v>1008689</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.714585288312956</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6881219980096914</v>
+        <v>0.6863555775431912</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7382914782899487</v>
+        <v>0.7385469188585905</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>472276</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>433225</v>
+        <v>432730</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>514230</v>
+        <v>518139</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1396402768246792</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1280938853075985</v>
+        <v>0.1279475337234774</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1520449843966676</v>
+        <v>0.1532009239609321</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>435</v>
@@ -3342,19 +3342,19 @@
         <v>452400</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>412171</v>
+        <v>412242</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>492558</v>
+        <v>491368</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1285131101985257</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.117085313063604</v>
+        <v>0.1171055997704685</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1399208650813769</v>
+        <v>0.1395828395492896</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>888</v>
@@ -3363,19 +3363,19 @@
         <v>924676</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>867812</v>
+        <v>869066</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>985125</v>
+        <v>980482</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1339653203356708</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1257269679782023</v>
+        <v>0.1259087090918713</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1427230794961064</v>
+        <v>0.1420503822471929</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>63297</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>48647</v>
+        <v>49293</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>81572</v>
+        <v>80604</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01871532392975795</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01438386061349347</v>
+        <v>0.01457470885902211</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02411890617112739</v>
+        <v>0.02383256254352601</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>48</v>
@@ -3413,19 +3413,19 @@
         <v>48260</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>36108</v>
+        <v>35657</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>64424</v>
+        <v>64681</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01370922771283983</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01025720430663715</v>
+        <v>0.01012894831867008</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01830089562648265</v>
+        <v>0.01837395910994739</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>110</v>
@@ -3434,19 +3434,19 @@
         <v>111557</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>93225</v>
+        <v>91229</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>133368</v>
+        <v>132312</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0161621691900755</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01350631806813542</v>
+        <v>0.01321710592461793</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01932214282846293</v>
+        <v>0.01916913190098489</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>70897</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>54531</v>
+        <v>55374</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>87879</v>
+        <v>89617</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02096254200638833</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01612343097689611</v>
+        <v>0.01637281214295491</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02598368790325276</v>
+        <v>0.02649745756905087</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>53</v>
@@ -3484,19 +3484,19 @@
         <v>53772</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>41062</v>
+        <v>41187</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>69818</v>
+        <v>68216</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01527497025762683</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01166455698626192</v>
+        <v>0.01169988498272816</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01983316159823898</v>
+        <v>0.01937801279688715</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>119</v>
@@ -3505,19 +3505,19 @@
         <v>124669</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>104578</v>
+        <v>105196</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>149611</v>
+        <v>147141</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01806182852857706</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01515111650492129</v>
+        <v>0.01524061483653636</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02167540163562186</v>
+        <v>0.02131755930856144</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>82669</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>65709</v>
+        <v>64775</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>103487</v>
+        <v>103519</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02444313075865906</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01942842445472555</v>
+        <v>0.01915229466018056</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03059857137869507</v>
+        <v>0.0306080734494864</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>67</v>
@@ -3555,19 +3555,19 @@
         <v>71177</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>54678</v>
+        <v>54978</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>90404</v>
+        <v>89459</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02021916859943561</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01553237321414037</v>
+        <v>0.01561755576359344</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02568109479242306</v>
+        <v>0.02541261776065524</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>145</v>
@@ -3576,19 +3576,19 @@
         <v>153846</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>128859</v>
+        <v>129444</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>180089</v>
+        <v>178629</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02228887152356593</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01866885971439758</v>
+        <v>0.01875355829220044</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02609092881404828</v>
+        <v>0.02587947399364379</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>2692950</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2648125</v>
+        <v>2638158</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2741309</v>
+        <v>2736759</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7962387264805154</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7829849846310314</v>
+        <v>0.7800379536530129</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8105371140748328</v>
+        <v>0.8091918984407512</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2712</v>
@@ -3626,19 +3626,19 @@
         <v>2894653</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2847925</v>
+        <v>2851107</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2942669</v>
+        <v>2938580</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8222835232315719</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8090092557380787</v>
+        <v>0.8099133849761746</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8359234014071654</v>
+        <v>0.8347617552171478</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5274</v>
@@ -3647,19 +3647,19 @@
         <v>5587604</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5520895</v>
+        <v>5519580</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5651328</v>
+        <v>5647979</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8095218104221107</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7998570644721766</v>
+        <v>0.799666577936284</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8187540179338103</v>
+        <v>0.8182687456440294</v>
       </c>
     </row>
     <row r="45">
